--- a/data/6548.xlsx
+++ b/data/6548.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1200"/>
+  <dimension ref="A1:I1201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43622,6 +43622,41 @@
         <v>157900</v>
       </c>
     </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>MPCORP</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>98900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6548.xlsx
+++ b/data/6548.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1201"/>
+  <dimension ref="A1:I1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43657,6 +43657,41 @@
         <v>98900</v>
       </c>
     </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>MPCORP</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>112000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6548.xlsx
+++ b/data/6548.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1202"/>
+  <dimension ref="A1:I1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43692,6 +43692,43 @@
         <v>112000</v>
       </c>
     </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>MPCORP</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1203" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6548.xlsx
+++ b/data/6548.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1203"/>
+  <dimension ref="A1:I1204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43729,6 +43729,41 @@
         </is>
       </c>
     </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>MPCORP</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6548.xlsx
+++ b/data/6548.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1204"/>
+  <dimension ref="A1:I1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43764,6 +43764,41 @@
         <v>100</v>
       </c>
     </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>MPCORP</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>1598100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6548.xlsx
+++ b/data/6548.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1205"/>
+  <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43799,6 +43799,41 @@
         <v>1598100</v>
       </c>
     </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>MPCORP</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>446500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6548.xlsx
+++ b/data/6548.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43834,6 +43834,41 @@
         <v>446500</v>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>MPCORP</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>179000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6548.xlsx
+++ b/data/6548.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43869,6 +43869,41 @@
         <v>179000</v>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>MPCORP</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>80000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6548.xlsx
+++ b/data/6548.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43904,6 +43904,43 @@
         <v>80000</v>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>MPCORP</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1209" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6548.xlsx
+++ b/data/6548.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43941,6 +43941,41 @@
         </is>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>MPCORP</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6548.xlsx
+++ b/data/6548.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43976,6 +43976,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>MPCORP</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>40000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6548.xlsx
+++ b/data/6548.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44011,6 +44011,41 @@
         <v>40000</v>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>MPCORP</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>13500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6548.xlsx
+++ b/data/6548.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44046,6 +44046,76 @@
         <v>13500</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>MPCORP</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>MPCORP</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>150700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6548.xlsx
+++ b/data/6548.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44116,6 +44116,76 @@
         <v>150700</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>MPCORP</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>33800</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>MPCORP</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>6000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6548.xlsx
+++ b/data/6548.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44186,6 +44186,41 @@
         <v>6000</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>MPCORP</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>60000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6548.xlsx
+++ b/data/6548.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44221,6 +44221,41 @@
         <v>60000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>MPCORP</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>21000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6548.xlsx
+++ b/data/6548.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44256,6 +44256,41 @@
         <v>21000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>MPCORP</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>25000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6548.xlsx
+++ b/data/6548.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44291,6 +44291,41 @@
         <v>25000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>MPCORP</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>34000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6548.xlsx
+++ b/data/6548.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44326,6 +44326,76 @@
         <v>34000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>MPCORP</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>509200</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>MPCORP</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>230000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6548.xlsx
+++ b/data/6548.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44396,6 +44396,41 @@
         <v>230000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>MPCORP</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>220000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6548.xlsx
+++ b/data/6548.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44431,6 +44431,41 @@
         <v>220000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>MPCORP</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>317000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6548.xlsx
+++ b/data/6548.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2531"/>
+  <dimension ref="A1:I2532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90211,6 +90211,41 @@
         <v>317000</v>
       </c>
     </row>
+    <row r="2532">
+      <c r="A2532" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2532" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2532" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D2532" t="inlineStr">
+        <is>
+          <t>MPCORP</t>
+        </is>
+      </c>
+      <c r="E2532" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2532" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G2532" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2532" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2532" t="n">
+        <v>120000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6548.xlsx
+++ b/data/6548.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2532"/>
+  <dimension ref="A1:I2533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90246,6 +90246,43 @@
         <v>120000</v>
       </c>
     </row>
+    <row r="2533">
+      <c r="A2533" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2533" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2533" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D2533" t="inlineStr">
+        <is>
+          <t>MPCORP</t>
+        </is>
+      </c>
+      <c r="E2533" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2533" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2533" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2533" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2533" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6548.xlsx
+++ b/data/6548.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2533"/>
+  <dimension ref="A1:I2534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90283,6 +90283,41 @@
         </is>
       </c>
     </row>
+    <row r="2534">
+      <c r="A2534" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2534" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2534" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D2534" t="inlineStr">
+        <is>
+          <t>MPCORP</t>
+        </is>
+      </c>
+      <c r="E2534" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2534" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2534" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2534" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2534" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6548.xlsx
+++ b/data/6548.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2534"/>
+  <dimension ref="A1:I2535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90318,6 +90318,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="2535">
+      <c r="A2535" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2535" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2535" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D2535" t="inlineStr">
+        <is>
+          <t>MPCORP</t>
+        </is>
+      </c>
+      <c r="E2535" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2535" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2535" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2535" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2535" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6548.xlsx
+++ b/data/6548.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2535"/>
+  <dimension ref="A1:I2536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90353,6 +90353,41 @@
         <v>200</v>
       </c>
     </row>
+    <row r="2536">
+      <c r="A2536" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2536" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2536" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D2536" t="inlineStr">
+        <is>
+          <t>MPCORP</t>
+        </is>
+      </c>
+      <c r="E2536" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2536" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2536" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2536" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2536" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6548.xlsx
+++ b/data/6548.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2536"/>
+  <dimension ref="A1:I2537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90388,6 +90388,43 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="2537">
+      <c r="A2537" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2537" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2537" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D2537" t="inlineStr">
+        <is>
+          <t>MPCORP</t>
+        </is>
+      </c>
+      <c r="E2537" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2537" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2537" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2537" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2537" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6548.xlsx
+++ b/data/6548.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2537"/>
+  <dimension ref="A1:I2538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90425,6 +90425,43 @@
         </is>
       </c>
     </row>
+    <row r="2538">
+      <c r="A2538" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2538" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2538" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D2538" t="inlineStr">
+        <is>
+          <t>MPCORP</t>
+        </is>
+      </c>
+      <c r="E2538" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2538" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2538" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2538" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2538" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6548.xlsx
+++ b/data/6548.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2538"/>
+  <dimension ref="A1:I2539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90462,6 +90462,41 @@
         </is>
       </c>
     </row>
+    <row r="2539">
+      <c r="A2539" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2539" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2539" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D2539" t="inlineStr">
+        <is>
+          <t>MPCORP</t>
+        </is>
+      </c>
+      <c r="E2539" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2539" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2539" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2539" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2539" t="n">
+        <v>200700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6548.xlsx
+++ b/data/6548.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2539"/>
+  <dimension ref="A1:I2540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90497,6 +90497,41 @@
         <v>200700</v>
       </c>
     </row>
+    <row r="2540">
+      <c r="A2540" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2540" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2540" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D2540" t="inlineStr">
+        <is>
+          <t>MPCORP</t>
+        </is>
+      </c>
+      <c r="E2540" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2540" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G2540" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2540" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2540" t="n">
+        <v>330600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6548.xlsx
+++ b/data/6548.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2540"/>
+  <dimension ref="A1:I2541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90532,6 +90532,41 @@
         <v>330600</v>
       </c>
     </row>
+    <row r="2541">
+      <c r="A2541" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2541" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2541" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D2541" t="inlineStr">
+        <is>
+          <t>MPCORP</t>
+        </is>
+      </c>
+      <c r="E2541" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2541" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2541" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2541" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2541" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6548.xlsx
+++ b/data/6548.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2541"/>
+  <dimension ref="A1:I2542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90567,6 +90567,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2542">
+      <c r="A2542" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2542" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2542" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D2542" t="inlineStr">
+        <is>
+          <t>MPCORP</t>
+        </is>
+      </c>
+      <c r="E2542" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2542" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2542" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2542" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2542" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6548.xlsx
+++ b/data/6548.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2542"/>
+  <dimension ref="A1:I2543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90602,6 +90602,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2543">
+      <c r="A2543" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2543" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2543" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D2543" t="inlineStr">
+        <is>
+          <t>MPCORP</t>
+        </is>
+      </c>
+      <c r="E2543" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2543" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2543" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2543" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2543" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6548.xlsx
+++ b/data/6548.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2543"/>
+  <dimension ref="A1:I2544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90639,6 +90639,43 @@
         </is>
       </c>
     </row>
+    <row r="2544">
+      <c r="A2544" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2544" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2544" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D2544" t="inlineStr">
+        <is>
+          <t>MPCORP</t>
+        </is>
+      </c>
+      <c r="E2544" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2544" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2544" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2544" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2544" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6548.xlsx
+++ b/data/6548.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2544"/>
+  <dimension ref="A1:I2545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90676,6 +90676,43 @@
         </is>
       </c>
     </row>
+    <row r="2545">
+      <c r="A2545" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2545" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2545" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D2545" t="inlineStr">
+        <is>
+          <t>MPCORP</t>
+        </is>
+      </c>
+      <c r="E2545" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2545" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2545" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2545" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2545" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6548.xlsx
+++ b/data/6548.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2545"/>
+  <dimension ref="A1:I2546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90713,6 +90713,43 @@
         </is>
       </c>
     </row>
+    <row r="2546">
+      <c r="A2546" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2546" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2546" t="inlineStr">
+        <is>
+          <t>6548</t>
+        </is>
+      </c>
+      <c r="D2546" t="inlineStr">
+        <is>
+          <t>MPCORP</t>
+        </is>
+      </c>
+      <c r="E2546" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2546" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2546" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2546" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2546" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
